--- a/biology/Botanique/Scutellaria/Scutellaria.xlsx
+++ b/biology/Botanique/Scutellaria/Scutellaria.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F6"/>
+  <dimension ref="A1:H7"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">Scutellaria (les scutellaires) est un genre végétal qui regroupe environ 350 espèces de plantes herbacées, de sous-arbrisseaux et même d'arbustes de la famille des Lamiaceae réparties un peu partout à travers le monde. On en trouve une centaine d'espèces en Chine.
 Le nom générique est dérivé du latin scutella, signifiant petit plat,  écuelle faisant référence à la forme du calice.
@@ -512,17 +524,19 @@
           <t>Espèces européennes</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
         <is>
           <t>Scutellaria albida L. - Scutellaire blanchâtre
-Scutellaria alpina L. - Scutellaire des Alpes[1]
-Scutellaria altissima L. - Scutellaire élevée[1]
+Scutellaria alpina L. - Scutellaire des Alpes
+Scutellaria altissima L. - Scutellaire élevée
 Scutellaria balearica Barceló
 Scutellaria columnae All. - Scutellaire de Colonna ou scutellaire de Columna
-Scutellaria galericulata L. - Scutellaire à casque, grande toque[1]
+Scutellaria galericulata L. - Scutellaire à casque, grande toque
 Scutellaria hastifolia L. - Scutellaire à feuilles hastées
 Scutellaria hirta Sibth. &amp; Sm.
-Scutellaria minor Huds. - Petite scutellaire[2]
+Scutellaria minor Huds. - Petite scutellaire
 Scutellaria orientalis L.
 Scutellaria rubicunda Hornem.
 Scutellaria sieberi Benth.
@@ -554,7 +568,9 @@
           <t>Espèces chinoises</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
         <is>
           <t>Scutellaria baicalensis Georgi - Scutellaire du Baïkal, 黄芩 Huáng Qín
 Scutellaria barbata D.Don –  Scutellaire barbue, 半枝莲 Bàn Zhī Lián</t>
@@ -585,7 +601,9 @@
           <t>Espèces américaines</t>
         </is>
       </c>
-      <c r="F5" t="inlineStr">
+      <c r="F5" t="inlineStr"/>
+      <c r="G5" t="inlineStr"/>
+      <c r="H5" t="inlineStr">
         <is>
           <t>Scutellaria californica A.Gray – Scutellaire de Californie
 Scutellaria floridana Chapm. – Scutellaire de Floride
@@ -618,11 +636,48 @@
           <t>Liste d'espèces</t>
         </is>
       </c>
-      <c r="F6" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Selon The Plant List[3] :
-Espèces valides
-Nomenclatures taxonomiques non résolues
+      <c r="F6" t="inlineStr"/>
+      <c r="G6" t="inlineStr"/>
+      <c r="H6" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Selon The Plant List :
+</t>
+        </is>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" s="1" t="n">
+        <v>5</v>
+      </c>
+      <c r="B7" t="inlineStr">
+        <is>
+          <t>Scutellaria</t>
+        </is>
+      </c>
+      <c r="C7" t="inlineStr">
+        <is>
+          <t>Portail:Botanique/Articles liés</t>
+        </is>
+      </c>
+      <c r="D7" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Scutellaria</t>
+        </is>
+      </c>
+      <c r="E7" t="inlineStr">
+        <is>
+          <t>Liste d'espèces</t>
+        </is>
+      </c>
+      <c r="F7" t="inlineStr">
+        <is>
+          <t>Nomenclatures taxonomiques non résolues</t>
+        </is>
+      </c>
+      <c r="G7" t="inlineStr"/>
+      <c r="H7" t="inlineStr">
+        <is>
+          <t xml:space="preserve">
 </t>
         </is>
       </c>
